--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H2">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I2">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J2">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N2">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O2">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P2">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q2">
-        <v>16.77142851424235</v>
+        <v>20.21888445806833</v>
       </c>
       <c r="R2">
-        <v>16.77142851424235</v>
+        <v>181.969960122615</v>
       </c>
       <c r="S2">
-        <v>0.2100910621560962</v>
+        <v>0.210443912702364</v>
       </c>
       <c r="T2">
-        <v>0.2100910621560962</v>
+        <v>0.2104439127023641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H3">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I3">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J3">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N3">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O3">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P3">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q3">
-        <v>0.5309167822216598</v>
+        <v>0.6381166910356666</v>
       </c>
       <c r="R3">
-        <v>0.5309167822216598</v>
+        <v>5.743050219321</v>
       </c>
       <c r="S3">
-        <v>0.006650648190088546</v>
+        <v>0.00664170041135201</v>
       </c>
       <c r="T3">
-        <v>0.006650648190088546</v>
+        <v>0.006641700411352013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H4">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I4">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J4">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N4">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O4">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P4">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q4">
-        <v>0.4482710321200812</v>
+        <v>0.5296616745227778</v>
       </c>
       <c r="R4">
-        <v>0.4482710321200812</v>
+        <v>4.766955070705</v>
       </c>
       <c r="S4">
-        <v>0.005615367658869448</v>
+        <v>0.005512869685081945</v>
       </c>
       <c r="T4">
-        <v>0.005615367658869448</v>
+        <v>0.005512869685081946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7987937302293729</v>
+        <v>0.8339443333333333</v>
       </c>
       <c r="H5">
-        <v>0.7987937302293729</v>
+        <v>2.501833</v>
       </c>
       <c r="I5">
-        <v>0.3048468048969719</v>
+        <v>0.305203232930382</v>
       </c>
       <c r="J5">
-        <v>0.3048468048969719</v>
+        <v>0.3052032329303821</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N5">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O5">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P5">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q5">
-        <v>6.585099544593014</v>
+        <v>7.936441958101556</v>
       </c>
       <c r="R5">
-        <v>6.585099544593014</v>
+        <v>71.427977622914</v>
       </c>
       <c r="S5">
-        <v>0.08248972689191765</v>
+        <v>0.08260475013158404</v>
       </c>
       <c r="T5">
-        <v>0.08248972689191765</v>
+        <v>0.08260475013158407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H6">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I6">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J6">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N6">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O6">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P6">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q6">
-        <v>31.97495500871221</v>
+        <v>37.27744007475833</v>
       </c>
       <c r="R6">
-        <v>31.97495500871221</v>
+        <v>335.496960672825</v>
       </c>
       <c r="S6">
-        <v>0.4005414478837676</v>
+        <v>0.3879942219922812</v>
       </c>
       <c r="T6">
-        <v>0.4005414478837676</v>
+        <v>0.3879942219922813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H7">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I7">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J7">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N7">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O7">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P7">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q7">
-        <v>1.012200016861517</v>
+        <v>1.176492044361666</v>
       </c>
       <c r="R7">
-        <v>1.012200016861517</v>
+        <v>10.588428399255</v>
       </c>
       <c r="S7">
-        <v>0.0126795506105081</v>
+        <v>0.01224526454919591</v>
       </c>
       <c r="T7">
-        <v>0.0126795506105081</v>
+        <v>0.01224526454919592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H8">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I8">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J8">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N8">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O8">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P8">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q8">
-        <v>0.8546347779246457</v>
+        <v>0.9765341590861112</v>
       </c>
       <c r="R8">
-        <v>0.8546347779246457</v>
+        <v>8.788807431775</v>
       </c>
       <c r="S8">
-        <v>0.01070577429330202</v>
+        <v>0.01016404588254063</v>
       </c>
       <c r="T8">
-        <v>0.01070577429330202</v>
+        <v>0.01016404588254063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.52291103668574</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H9">
-        <v>1.52291103668574</v>
+        <v>4.612615</v>
       </c>
       <c r="I9">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157557</v>
       </c>
       <c r="J9">
-        <v>0.5811945513676886</v>
+        <v>0.5627014314157558</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N9">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O9">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P9">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q9">
-        <v>12.55458123244816</v>
+        <v>14.63237203385222</v>
       </c>
       <c r="R9">
-        <v>12.55458123244816</v>
+        <v>131.69134830467</v>
       </c>
       <c r="S9">
-        <v>0.1572677785801109</v>
+        <v>0.1522978989917379</v>
       </c>
       <c r="T9">
-        <v>0.1572677785801109</v>
+        <v>0.152297898991738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.298607197644722</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H10">
-        <v>0.298607197644722</v>
+        <v>0.119675</v>
       </c>
       <c r="I10">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="J10">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N10">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O10">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P10">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q10">
-        <v>6.269540032191576</v>
+        <v>0.9671688707916667</v>
       </c>
       <c r="R10">
-        <v>6.269540032191576</v>
+        <v>8.704519837125</v>
       </c>
       <c r="S10">
-        <v>0.07853679986023523</v>
+        <v>0.01006656929245694</v>
       </c>
       <c r="T10">
-        <v>0.07853679986023523</v>
+        <v>0.01006656929245694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.298607197644722</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H11">
-        <v>0.298607197644722</v>
+        <v>0.119675</v>
       </c>
       <c r="I11">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="J11">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N11">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O11">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P11">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q11">
-        <v>0.1984687241801956</v>
+        <v>0.03052426560833333</v>
       </c>
       <c r="R11">
-        <v>0.1984687241801956</v>
+        <v>0.274718390475</v>
       </c>
       <c r="S11">
-        <v>0.002486163002297257</v>
+        <v>0.0003177052571968441</v>
       </c>
       <c r="T11">
-        <v>0.002486163002297257</v>
+        <v>0.0003177052571968442</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.298607197644722</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H12">
-        <v>0.298607197644722</v>
+        <v>0.119675</v>
       </c>
       <c r="I12">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="J12">
-        <v>0.1139586437353396</v>
+        <v>0.01459937449899473</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N12">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O12">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P12">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q12">
-        <v>0.1675738699754788</v>
+        <v>0.02533632776388889</v>
       </c>
       <c r="R12">
-        <v>0.1675738699754788</v>
+        <v>0.228026949875</v>
       </c>
       <c r="S12">
-        <v>0.002099151679468391</v>
+        <v>0.0002637077213235983</v>
       </c>
       <c r="T12">
-        <v>0.002099151679468391</v>
+        <v>0.0002637077213235984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.119675</v>
+      </c>
+      <c r="I13">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="J13">
+        <v>0.01459937449899473</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.516752666666667</v>
+      </c>
+      <c r="N13">
+        <v>28.550258</v>
+      </c>
+      <c r="O13">
+        <v>0.2706548988307292</v>
+      </c>
+      <c r="P13">
+        <v>0.2706548988307293</v>
+      </c>
+      <c r="Q13">
+        <v>0.3796391251277778</v>
+      </c>
+      <c r="R13">
+        <v>3.41675212615</v>
+      </c>
+      <c r="S13">
+        <v>0.003951392228017346</v>
+      </c>
+      <c r="T13">
+        <v>0.003951392228017348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J14">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.244885</v>
+      </c>
+      <c r="N14">
+        <v>72.734655</v>
+      </c>
+      <c r="O14">
+        <v>0.6895205882382217</v>
+      </c>
+      <c r="P14">
+        <v>0.6895205882382218</v>
+      </c>
+      <c r="Q14">
+        <v>7.783788002736667</v>
+      </c>
+      <c r="R14">
+        <v>70.05409202463001</v>
+      </c>
+      <c r="S14">
+        <v>0.08101588425111954</v>
+      </c>
+      <c r="T14">
+        <v>0.08101588425111957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J15">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7651789999999999</v>
+      </c>
+      <c r="N15">
+        <v>2.295537</v>
+      </c>
+      <c r="O15">
+        <v>0.02176156637523891</v>
+      </c>
+      <c r="P15">
+        <v>0.02176156637523891</v>
+      </c>
+      <c r="Q15">
+        <v>0.2456596977113333</v>
+      </c>
+      <c r="R15">
+        <v>2.210937279402</v>
+      </c>
+      <c r="S15">
+        <v>0.002556896157494143</v>
+      </c>
+      <c r="T15">
+        <v>0.002556896157494144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.298607197644722</v>
-      </c>
-      <c r="H13">
-        <v>0.298607197644722</v>
-      </c>
-      <c r="I13">
-        <v>0.1139586437353396</v>
-      </c>
-      <c r="J13">
-        <v>0.1139586437353396</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.24380474631681</v>
-      </c>
-      <c r="N13">
-        <v>8.24380474631681</v>
-      </c>
-      <c r="O13">
-        <v>0.2705940346653672</v>
-      </c>
-      <c r="P13">
-        <v>0.2705940346653672</v>
-      </c>
-      <c r="Q13">
-        <v>2.461659433227921</v>
-      </c>
-      <c r="R13">
-        <v>2.461659433227921</v>
-      </c>
-      <c r="S13">
-        <v>0.03083652919333872</v>
-      </c>
-      <c r="T13">
-        <v>0.03083652919333872</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J16">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6351283333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.905385</v>
+      </c>
+      <c r="O16">
+        <v>0.01806294655581008</v>
+      </c>
+      <c r="P16">
+        <v>0.01806294655581008</v>
+      </c>
+      <c r="Q16">
+        <v>0.2039071045788889</v>
+      </c>
+      <c r="R16">
+        <v>1.83516394121</v>
+      </c>
+      <c r="S16">
+        <v>0.00212232326686391</v>
+      </c>
+      <c r="T16">
+        <v>0.00212232326686391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3210486666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.9631460000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="J17">
+        <v>0.1174959611548676</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.516752666666667</v>
+      </c>
+      <c r="N17">
+        <v>28.550258</v>
+      </c>
+      <c r="O17">
+        <v>0.2706548988307292</v>
+      </c>
+      <c r="P17">
+        <v>0.2706548988307293</v>
+      </c>
+      <c r="Q17">
+        <v>3.055340754629778</v>
+      </c>
+      <c r="R17">
+        <v>27.498066791668</v>
+      </c>
+      <c r="S17">
+        <v>0.03180085747938997</v>
+      </c>
+      <c r="T17">
+        <v>0.03180085747938999</v>
       </c>
     </row>
   </sheetData>
